--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1123.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1123.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,252 +399,252 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>167</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>324</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>248</v>
+        <v>142</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>362</v>
+        <v>823</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>152</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>417</v>
+        <v>1432</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>167</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>418</v>
+        <v>1492</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>152</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>435</v>
+        <v>1514</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>823</v>
+        <v>2225</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>964</v>
+        <v>2859</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1492</v>
+        <v>2912</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1722</v>
+        <v>3024</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>248</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>2054</v>
+        <v>3258</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>2057</v>
+        <v>3896</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C14">
-        <v>518</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>2423</v>
+        <v>4001</v>
       </c>
       <c r="B15">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>2912</v>
+        <v>5452</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>4030</v>
+        <v>5453</v>
       </c>
       <c r="B17">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>5208</v>
+        <v>5811</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
       <c r="C18">
-        <v>610</v>
+        <v>643</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>5869</v>
+        <v>5812</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>234</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>6952</v>
+        <v>6540</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>7704</v>
+        <v>6952</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>195</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>7708</v>
+        <v>7573</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>195</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>8157</v>
+        <v>8675</v>
       </c>
       <c r="B23">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>8635</v>
+        <v>9507</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -652,40 +652,40 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>8896</v>
+        <v>10149</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>10446</v>
+        <v>11859</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>153</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>11611</v>
+        <v>12496</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>152</v>
+        <v>615</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>11678</v>
+        <v>12924</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -696,18 +696,18 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>12056</v>
+        <v>13299</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>625</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>12345</v>
+        <v>13485</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -718,90 +718,35 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>12925</v>
+        <v>13489</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>69</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>13033</v>
+        <v>21798</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>54</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>13034</v>
+        <v>22585</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>13489</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>14017</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>19687</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>22911</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>23960</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>634</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1123.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1123.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,32 +399,32 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -432,10 +432,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>823</v>
+        <v>215</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -443,186 +443,186 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1432</v>
+        <v>326</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1492</v>
+        <v>335</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1514</v>
+        <v>336</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>2225</v>
+        <v>345</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>640</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>2859</v>
+        <v>448</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>2912</v>
+        <v>563</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>3024</v>
+        <v>990</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>3258</v>
+        <v>1000</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>42</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>3896</v>
+        <v>1492</v>
       </c>
       <c r="B14">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>4001</v>
+        <v>2322</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>5452</v>
+        <v>3430</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>5453</v>
+        <v>5729</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>108</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>5811</v>
+        <v>7004</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>643</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>5812</v>
+        <v>7705</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>6540</v>
+        <v>7708</v>
       </c>
       <c r="B20">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>41</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>6952</v>
+        <v>8356</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>7573</v>
+        <v>8635</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -630,65 +630,65 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>8675</v>
+        <v>10454</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>9507</v>
+        <v>11180</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>10149</v>
+        <v>11510</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>11859</v>
+        <v>11919</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>108</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>12496</v>
+        <v>21700</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>615</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>12924</v>
+        <v>21701</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -696,57 +696,24 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>13299</v>
+        <v>21745</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>161</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>13485</v>
+        <v>25278</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>13489</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>21798</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>22585</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1123.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1123.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,32 +399,32 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>159</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -432,288 +432,321 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>215</v>
+        <v>336</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>326</v>
+        <v>448</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>335</v>
+        <v>825</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1347</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>336</v>
+        <v>1492</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>117</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>345</v>
+        <v>2308</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>448</v>
+        <v>2424</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>563</v>
+        <v>3258</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>77</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>990</v>
+        <v>3430</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1000</v>
+        <v>4940</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>118</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1492</v>
+        <v>5811</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>40</v>
+        <v>656</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>2322</v>
+        <v>6872</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C15">
-        <v>115</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>3430</v>
+        <v>7007</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>5729</v>
+        <v>7084</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>7004</v>
+        <v>7708</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>7705</v>
+        <v>7887</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>191</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>7708</v>
+        <v>8356</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>190</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>8356</v>
+        <v>8635</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>96</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>8635</v>
+        <v>8672</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>10454</v>
+        <v>8939</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>153</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>11180</v>
+        <v>9081</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>11510</v>
+        <v>9507</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>11919</v>
+        <v>9820</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>21700</v>
+        <v>10147</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>21701</v>
+        <v>10447</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>21745</v>
+        <v>11180</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>25278</v>
+        <v>11404</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30">
         <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>11965</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>12347</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>24722</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1123.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1123.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,32 +399,32 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>201</v>
+        <v>336</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>215</v>
+        <v>2424</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -432,321 +432,57 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>336</v>
+        <v>6935</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>118</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>448</v>
+        <v>7703</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>825</v>
+        <v>7706</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1492</v>
+        <v>8648</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>2308</v>
+        <v>13034</v>
       </c>
       <c r="B9">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>2424</v>
-      </c>
-      <c r="B10">
-        <v>29</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>3258</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>3430</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>4940</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>5811</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>6872</v>
-      </c>
-      <c r="B15">
-        <v>29</v>
-      </c>
-      <c r="C15">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>7007</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>7084</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>7708</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>7887</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>8356</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>8635</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>8672</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>8939</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>9081</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>9507</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>9820</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>10147</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>10447</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>11180</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>11404</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>11965</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>12347</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>24722</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33">
-        <v>62</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1123.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1123.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,90 +399,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>248</v>
+        <v>336</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>336</v>
+        <v>2424</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C3">
-        <v>121</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2424</v>
+        <v>7706</v>
       </c>
       <c r="B4">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>6935</v>
+        <v>12720</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>7703</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>7706</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>8648</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>13034</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>642</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1123.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1123.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,46 +399,101 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>336</v>
+        <v>107</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>121</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>2424</v>
+        <v>336</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>7706</v>
+        <v>436</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>195</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>12720</v>
+        <v>2424</v>
       </c>
       <c r="B5">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>7885</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>8216</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>8648</v>
+      </c>
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>306</v>
+      <c r="C8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>13034</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>21793</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1123.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1123.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,101 +399,189 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>336</v>
+        <v>107</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>121</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>436</v>
+        <v>305</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>106</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2424</v>
+        <v>515</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>7885</v>
+        <v>2422</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C6">
-        <v>153</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>8216</v>
+        <v>2424</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>8648</v>
+        <v>3893</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>222</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>13034</v>
+        <v>5736</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>643</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>21793</v>
+        <v>5812</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>6158</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>8648</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>8676</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>8927</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>9507</v>
+      </c>
+      <c r="B15">
         <v>1</v>
       </c>
-      <c r="C10">
-        <v>255</v>
+      <c r="C15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>11848</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>13034</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>21798</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1123.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1123.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,81 +405,81 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>612</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>107</v>
+        <v>305</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>515</v>
+        <v>326</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>227</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2422</v>
+        <v>336</v>
       </c>
       <c r="B6">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>2424</v>
+        <v>413</v>
       </c>
       <c r="B7">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>3893</v>
+        <v>440</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>5736</v>
+        <v>2424</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -487,101 +487,112 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>5812</v>
+        <v>3893</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>6158</v>
+        <v>3894</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>8648</v>
+        <v>5736</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>8676</v>
+        <v>6158</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>8927</v>
+        <v>6952</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>890</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>9507</v>
+        <v>7084</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>11848</v>
+        <v>8673</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>159</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>13034</v>
+        <v>8944</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>643</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>21798</v>
+        <v>11848</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>13034</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>642</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1123.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1123.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,87 +399,87 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>88</v>
+        <v>307</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>612</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>162</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>307</v>
+        <v>413</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>161</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>326</v>
+        <v>944</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>336</v>
+        <v>2423</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C6">
-        <v>121</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>413</v>
+        <v>2424</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C7">
-        <v>89</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>440</v>
+        <v>3477</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>214</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>2424</v>
+        <v>3893</v>
       </c>
       <c r="B9">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -498,101 +498,90 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>3894</v>
+        <v>5736</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>5736</v>
+        <v>6158</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>55</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>6158</v>
+        <v>7084</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>6952</v>
+        <v>7704</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>7084</v>
+        <v>10574</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>556</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>8673</v>
+        <v>11587</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>8944</v>
+        <v>20650</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>239</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>11848</v>
+        <v>25278</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>13034</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>642</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1123.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1123.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,54 +399,54 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>307</v>
+        <v>105</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>161</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>345</v>
+        <v>1007</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>336</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>413</v>
+        <v>2424</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>944</v>
+        <v>3430</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2423</v>
+        <v>3893</v>
       </c>
       <c r="B6">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -454,133 +454,78 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>2424</v>
+        <v>6158</v>
       </c>
       <c r="B7">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>37</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>3477</v>
+        <v>6628</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>3893</v>
+        <v>6936</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>3894</v>
+        <v>7706</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>5736</v>
+        <v>9081</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>6158</v>
+        <v>10149</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>283</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>7084</v>
+        <v>25278</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>7704</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>10574</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>11587</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>20650</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>25278</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
         <v>7</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1123.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1123.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,133 +399,771 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>259</v>
+        <v>909</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1007</v>
+        <v>74</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>287</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2424</v>
+        <v>105</v>
       </c>
       <c r="B4">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>3430</v>
+        <v>110</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>3893</v>
+        <v>114</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>6158</v>
+        <v>146</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>281</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>6628</v>
+        <v>159</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>6936</v>
+        <v>201</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>7706</v>
+        <v>247</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>191</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>9081</v>
+        <v>336</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>10149</v>
+        <v>361</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
+        <v>440</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>515</v>
+      </c>
+      <c r="B14">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>615</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>823</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>1055</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>1124</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>1163</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>1413</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>1668</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>1728</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>2109</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>2188</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>2331</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>2421</v>
+      </c>
+      <c r="B26">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>2805</v>
+      </c>
+      <c r="B27">
+        <v>137</v>
+      </c>
+      <c r="C27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>2991</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>3429</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>3430</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>3477</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>3674</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>3898</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>3906</v>
+      </c>
+      <c r="B34">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>3910</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>4223</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>5111</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>5585</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>5733</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>6098</v>
+      </c>
+      <c r="B40">
+        <v>29</v>
+      </c>
+      <c r="C40">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>6936</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>7004</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>7005</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>7706</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>7885</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>8659</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>8673</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>8676</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>8927</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>9081</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>9491</v>
+      </c>
+      <c r="B51">
+        <v>21</v>
+      </c>
+      <c r="C51">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>9784</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>9877</v>
+      </c>
+      <c r="B53">
+        <v>15</v>
+      </c>
+      <c r="C53">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>10148</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>10149</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>10174</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>10447</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>10468</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>10716</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>11160</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>11450</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>11587</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>11689</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>12764</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>21793</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>22364</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>24257</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>24566</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>24567</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>24670</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
         <v>25278</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
         <v>7</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1123.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1123.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,87 +399,87 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>909</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>261</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>233</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>283</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>163</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -487,318 +487,318 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>247</v>
+        <v>159</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>101</v>
+        <v>811</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>336</v>
+        <v>192</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>121</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>166</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>440</v>
+        <v>345</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>218</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>515</v>
+        <v>362</v>
       </c>
       <c r="B14">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>234</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>615</v>
+        <v>424</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>608</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>823</v>
+        <v>616</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1055</v>
+        <v>944</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1124</v>
+        <v>947</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>203</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1163</v>
+        <v>964</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C19">
-        <v>380</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1413</v>
+        <v>1055</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1668</v>
+        <v>1124</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>114</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1728</v>
+        <v>1309</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>110</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>2109</v>
+        <v>1429</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>43</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>2188</v>
+        <v>1490</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>2331</v>
+        <v>1548</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>2421</v>
+        <v>1801</v>
       </c>
       <c r="B26">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>2805</v>
+        <v>2055</v>
       </c>
       <c r="B27">
-        <v>137</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>200</v>
+        <v>517</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>2991</v>
+        <v>2322</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>169</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>3429</v>
+        <v>2424</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>3430</v>
+        <v>2438</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>3477</v>
+        <v>2492</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>3674</v>
+        <v>2857</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>3898</v>
+        <v>3258</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C33">
-        <v>24</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>3906</v>
+        <v>3429</v>
       </c>
       <c r="B34">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34">
-        <v>213</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>3910</v>
+        <v>3430</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>4223</v>
+        <v>3495</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>5111</v>
+        <v>3674</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>5585</v>
+        <v>5494</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -806,365 +806,508 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>5733</v>
+        <v>5585</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>56</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>6098</v>
+        <v>5733</v>
       </c>
       <c r="B40">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>6936</v>
+        <v>6575</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>13</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>7004</v>
+        <v>6630</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>7005</v>
+        <v>6936</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>86</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>7706</v>
+        <v>7708</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44">
-        <v>191</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>7885</v>
+        <v>8157</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C45">
-        <v>153</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>8659</v>
+        <v>8274</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>136</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>8673</v>
+        <v>8650</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>8676</v>
+        <v>8672</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>8927</v>
+        <v>8676</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>909</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>9081</v>
+        <v>8753</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>391</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>9491</v>
+        <v>9081</v>
       </c>
       <c r="B51">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>2495</v>
+        <v>534</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>9784</v>
+        <v>9085</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C52">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>9877</v>
+        <v>9459</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>10148</v>
+        <v>10147</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54">
-        <v>119</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>10149</v>
+        <v>10453</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>1018</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>10174</v>
+        <v>10527</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C56">
-        <v>44</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>10447</v>
+        <v>10716</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C57">
-        <v>156</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>10468</v>
+        <v>11040</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58">
-        <v>156</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>10716</v>
+        <v>11234</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59">
-        <v>107</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>11160</v>
+        <v>11690</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>563</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>11450</v>
+        <v>11856</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>11587</v>
+        <v>11859</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>11689</v>
+        <v>11868</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63">
-        <v>338</v>
+        <v>315</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>12764</v>
+        <v>11952</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>21793</v>
+        <v>12222</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>22364</v>
+        <v>12343</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>24257</v>
+        <v>12344</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
-        <v>155</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>24566</v>
+        <v>12345</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68">
-        <v>357</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>24567</v>
+        <v>12349</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69">
-        <v>361</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>24670</v>
+        <v>12720</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>34</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
+        <v>12721</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>13293</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>13488</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>13962</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>19685</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>19687</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>20680</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>20978</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>21946</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>22665</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>23235</v>
+      </c>
+      <c r="B81">
+        <v>29</v>
+      </c>
+      <c r="C81">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>24257</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>24566</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
         <v>25278</v>
       </c>
-      <c r="B71">
-        <v>2</v>
-      </c>
-      <c r="C71">
-        <v>7</v>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1123.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1123.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,62 +399,62 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>178</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>625</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>135</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>289</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>240</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>114</v>
+        <v>345</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -465,260 +465,260 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>130</v>
+        <v>362</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>64</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>140</v>
+        <v>413</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>159</v>
+        <v>424</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>811</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>192</v>
+        <v>436</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>1665</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>307</v>
+        <v>515</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>345</v>
+        <v>589</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>362</v>
+        <v>624</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>153</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>424</v>
+        <v>976</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>608</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>616</v>
+        <v>1309</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>944</v>
+        <v>1414</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>49</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>947</v>
+        <v>1446</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>47</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>964</v>
+        <v>1490</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>122</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1055</v>
+        <v>1668</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1124</v>
+        <v>1728</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1309</v>
+        <v>2054</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>58</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1429</v>
+        <v>2055</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>145</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1490</v>
+        <v>2805</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="C24">
-        <v>55</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1548</v>
+        <v>3257</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1801</v>
+        <v>3430</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>2055</v>
+        <v>3477</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>517</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>2322</v>
+        <v>3495</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>2424</v>
+        <v>3674</v>
       </c>
       <c r="B29">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>2438</v>
+        <v>3889</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>60</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>2492</v>
+        <v>3893</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -729,68 +729,68 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>2857</v>
+        <v>3894</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>3258</v>
+        <v>3906</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C33">
-        <v>222</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>3429</v>
+        <v>4222</v>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>3430</v>
+        <v>5111</v>
       </c>
       <c r="B35">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>3495</v>
+        <v>5152</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>1145</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>3674</v>
+        <v>5453</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -801,18 +801,18 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>5585</v>
+        <v>5577</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
       <c r="C39">
-        <v>283</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -828,227 +828,227 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>6575</v>
+        <v>6097</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C41">
-        <v>291</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>6630</v>
+        <v>6496</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>116</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>6936</v>
+        <v>6497</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>7708</v>
+        <v>7885</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>8157</v>
+        <v>7887</v>
       </c>
       <c r="B45">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>37</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>8274</v>
+        <v>8216</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>384</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>8650</v>
+        <v>8356</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>221</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>8672</v>
+        <v>8753</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48">
-        <v>317</v>
+        <v>392</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>8676</v>
+        <v>8754</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="C49">
-        <v>318</v>
+        <v>395</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>8753</v>
+        <v>8926</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>391</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>9081</v>
+        <v>8944</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
       <c r="C51">
-        <v>534</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>9085</v>
+        <v>8963</v>
       </c>
       <c r="B52">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>9459</v>
+        <v>9253</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>506</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>10147</v>
+        <v>10148</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>10453</v>
+        <v>11690</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55">
-        <v>157</v>
+        <v>353</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>10527</v>
+        <v>11767</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>1051</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>10716</v>
+        <v>11848</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>111</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>11040</v>
+        <v>11868</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58">
-        <v>112</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>11234</v>
+        <v>11952</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>11690</v>
+        <v>12222</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C60">
-        <v>343</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>11856</v>
+        <v>12511</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1059,32 +1059,32 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>11859</v>
+        <v>12574</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>110</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>11868</v>
+        <v>12612</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>315</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>11952</v>
+        <v>12720</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64">
         <v>7</v>
@@ -1092,222 +1092,123 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>12222</v>
+        <v>12764</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65">
-        <v>7</v>
+        <v>815</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>12343</v>
+        <v>13028</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C66">
-        <v>7</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>12344</v>
+        <v>13293</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>7</v>
+        <v>326</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>12345</v>
+        <v>19980</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68">
-        <v>7</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>12349</v>
+        <v>19981</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>12720</v>
+        <v>20650</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70">
-        <v>313</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>12721</v>
+        <v>20978</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71">
-        <v>316</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>13293</v>
+        <v>23235</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C72">
-        <v>327</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>13488</v>
+        <v>24566</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73">
-        <v>136</v>
+        <v>343</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>13962</v>
+        <v>24567</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74">
-        <v>7</v>
+        <v>359</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>19685</v>
+        <v>24889</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C75">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76">
-        <v>19687</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77">
-        <v>20680</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78">
-        <v>20978</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79">
-        <v>21946</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80">
-        <v>22665</v>
-      </c>
-      <c r="B80">
-        <v>2</v>
-      </c>
-      <c r="C80">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81">
-        <v>23235</v>
-      </c>
-      <c r="B81">
         <v>29</v>
-      </c>
-      <c r="C81">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82">
-        <v>24257</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83">
-        <v>24566</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84">
-        <v>25278</v>
-      </c>
-      <c r="B84">
-        <v>2</v>
-      </c>
-      <c r="C84">
-        <v>304</v>
       </c>
     </row>
   </sheetData>
